--- a/biology/Botanique/Limonia_acidissima/Limonia_acidissima.xlsx
+++ b/biology/Botanique/Limonia_acidissima/Limonia_acidissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonia acidissima (syn. Feronia elephantum, Feronia limonia, Hesperethusa crenulata, Schinus limonia)  Kawista,surnommé également Pomme à coque, il est la seule espèce du genre Limonia de la famille des Rutacées. C'est un parent proche des agrumes (de la famille des Rutaceae, de la sous-famille des Citroideae (ou des Aurantioideae) et de la tribu des Citreae). 
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse à l'état sauvage dans tout le sous-continent indien et au Sri Lanka, en Asie du Sud-Est jusqu'à Java (île) et en Malaisie. Il se rencontre jusqu'à 450 m d'altitude dans l'Himalaya.
 Bien que poussant dans une grande variété de sols, il préfère les sols légers. Il demande une saison sèche bien marquée.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre à croissance lente pouvant atteindre 9 m de haut avec des branches aux épines dressées de 2-5 cm de long. Son port est érigé aux branches portant de nombreux rameaux grêles retombants aux extrémités. Les branches sont parfois en zigzag.
 L'écorce est fissurée.
@@ -554,8 +570,6 @@
 Le fruit de 50 à 125 mm de large est rond à légèrement ovale, avec une écorce blanchâtre, dure, ligneuse de 6 mm d'épaisseur.
 Sa pulpe est jaune à orange foncé. Elle est comestible, non juteuse et crémeuse, comportant de nombreuses fibres épaisses avec un fort arôme aurantiacé et un goût plaisant parfois acide et sucré.
 Les graines sont nombreuses, couvertes de pilosités, noyées dans un épais jus résineux qui est également comestible.
-Variétés
-Il existe deux formes : une à fruits larges et sucrés, une autre à fruits petits et acides.
 </t>
         </is>
       </c>
@@ -581,10 +595,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux formes : une à fruits larges et sucrés, une autre à fruits petits et acides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Limonia_acidissima</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Limonia_acidissima</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est généralement propagé par les graines mais le bouturage de racines, le marcottage aérien et le greffage sur francs sont également pratiqués.
 Le semis donne des fruits à l'âge de 15 ans.
@@ -597,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Limonia_acidissima</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Limonia_acidissima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour tester la maturité, le fruit est lâché sur une surface dure d'une hauteur de 30 cm. Les fruits immatures rebondissent les fruits mûrs non.
 Bien que beaucoup moins résistante que la coque de noix de coco, l'écorce du fruit doit néanmoins être cassée avec un marteau ou en tapant le fruit sur une surface dure.
@@ -647,31 +702,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Limonia_acidissima</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Limonia_acidissima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Autres appellations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Anglais : Wood Apple, Elephant Apple, Monkey Fruit or Curd Fruit.
 Bengali : Koth Bel (কৎ বেল)
